--- a/biology/Écologie/Tamanrasset_(fleuve)/Tamanrasset_(fleuve).xlsx
+++ b/biology/Écologie/Tamanrasset_(fleuve)/Tamanrasset_(fleuve).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Tamanrasset est un énorme paléo-fleuve qui aurait traversé l'Afrique de l'Ouest il y a à peine 5000 ans dont l'existence a été envisagée en 2015 par des chercheurs de l'institut français IFREMER. Le bassin du fleuve Tamanrasset serait comparable au bassin fluvial actuel du Gange-Brahmapoutre en Asie[1],[2],[3],[4],[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Tamanrasset est un énorme paléo-fleuve qui aurait traversé l'Afrique de l'Ouest il y a à peine 5000 ans dont l'existence a été envisagée en 2015 par des chercheurs de l'institut français IFREMER. Le bassin du fleuve Tamanrasset serait comparable au bassin fluvial actuel du Gange-Brahmapoutre en Asie.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Un paléo-fleuve du Hoggar à l'Atlantique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Tamanrasett aurait coulé à travers le Sahara dans les temps anciens à partir de sources situées dans les montagnes du sud de l'Atlas et les hautes terres du Hoggar dans ce qui est maintenant l'Algérie[3].
-Le fleuve aurait contribué à alimenter le canyon du  cap Timiris, situé au large de la côte de la Mauritanie, canyon situé à 3000 mètres de profondeur et ayant une largeur maximale de 2,5 km[7],[3].
-L'existence de ce  fleuve aurait eu de vastes implications dans les phases de migrations humaines de l'Afrique centrale vers le Moyen-Orient, l'Europe et l'Asie. Désert jadis réputé comme inhospitalier, le Sahara aurait donc été en fait une route occidentale facilitant les flux migratoire vers l'Europe[8],
-[9],
-[10],
-[11].
-L'ancien fleuve aurait été actif durant la période humide africaine, lors des oscillations climatiques causées par les précessions de l’orbite de la Terre autour du Soleil[4].
-Le paléofleuve a été découvert grâce à un système de satellites orbitaux japonais appelé PALSAR (Phased Array type L-band Synthetic Aperture Radar). La détection par micro-ondes permettant au PALSAR d'observer sous la surface des sables sahariens a ainsi détecté l'eau fossile qui y coule toujours[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Tamanrasett aurait coulé à travers le Sahara dans les temps anciens à partir de sources situées dans les montagnes du sud de l'Atlas et les hautes terres du Hoggar dans ce qui est maintenant l'Algérie.
+Le fleuve aurait contribué à alimenter le canyon du  cap Timiris, situé au large de la côte de la Mauritanie, canyon situé à 3000 mètres de profondeur et ayant une largeur maximale de 2,5 km,.
+L'existence de ce  fleuve aurait eu de vastes implications dans les phases de migrations humaines de l'Afrique centrale vers le Moyen-Orient, l'Europe et l'Asie. Désert jadis réputé comme inhospitalier, le Sahara aurait donc été en fait une route occidentale facilitant les flux migratoire vers l'Europe,
+,
+,
+.
+L'ancien fleuve aurait été actif durant la période humide africaine, lors des oscillations climatiques causées par les précessions de l’orbite de la Terre autour du Soleil.
+Le paléofleuve a été découvert grâce à un système de satellites orbitaux japonais appelé PALSAR (Phased Array type L-band Synthetic Aperture Radar). La détection par micro-ondes permettant au PALSAR d'observer sous la surface des sables sahariens a ainsi détecté l'eau fossile qui y coule toujours.
 </t>
         </is>
       </c>
@@ -549,10 +563,12 @@
           <t>Un autre paléo-fleuve en Libye</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès 2004 des chercheurs américains et saoudiens avaient déjà détecté un important réseau hydrographique fossile près de l'oasis de Kufrah (Libye) et s'étendant sous la surface de trois pays : la Libye, l'Egypte et le Tchad.
-Philippe Paillou, planétologue de l'INSU-CNRS (Université Bordeaux-1) et son équipe, étudiant les données radar de PALSAR, ont découvert le lit d'un paléo-fleuve de 1 200 km de long, sous des dépôts éoliens de l'est de la Libye[12]. Cet ancien fleuve pourrait dater de  5 à 6 millions d’années[13].
+Philippe Paillou, planétologue de l'INSU-CNRS (Université Bordeaux-1) et son équipe, étudiant les données radar de PALSAR, ont découvert le lit d'un paléo-fleuve de 1 200 km de long, sous des dépôts éoliens de l'est de la Libye. Cet ancien fleuve pourrait dater de  5 à 6 millions d’années.
 </t>
         </is>
       </c>
